--- a/results/R_gene_lists/d14_DC_subtype_ova_GO.xlsx
+++ b/results/R_gene_lists/d14_DC_subtype_ova_GO.xlsx
@@ -6,23 +6,21 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="neg-Monocyte" r:id="rId3" sheetId="1"/>
-    <sheet name="pos-Monocyte" r:id="rId4" sheetId="2"/>
-    <sheet name="pos-Siglec-H" r:id="rId5" sheetId="3"/>
-    <sheet name="neg-cDC2 Tbet-" r:id="rId6" sheetId="4"/>
-    <sheet name="pos-cDC2 Tbet-" r:id="rId7" sheetId="5"/>
-    <sheet name="pos-cDC1" r:id="rId8" sheetId="6"/>
-    <sheet name="neg-cDC2 Tbet+" r:id="rId9" sheetId="7"/>
-    <sheet name="pos-cDC2 Tbet+" r:id="rId10" sheetId="8"/>
-    <sheet name="neg-CCR7hi mig cDC2" r:id="rId11" sheetId="9"/>
-    <sheet name="pos-CCR7hi mig cDC2" r:id="rId12" sheetId="10"/>
-    <sheet name="pos-CCR7hi mig cDC1" r:id="rId13" sheetId="11"/>
+    <sheet name="low-Monocyte" r:id="rId3" sheetId="1"/>
+    <sheet name="high-Monocyte" r:id="rId4" sheetId="2"/>
+    <sheet name="high-Siglec-H" r:id="rId5" sheetId="3"/>
+    <sheet name="low-cDC2 Tbet-" r:id="rId6" sheetId="4"/>
+    <sheet name="high-cDC2 Tbet-" r:id="rId7" sheetId="5"/>
+    <sheet name="high-cDC1" r:id="rId8" sheetId="6"/>
+    <sheet name="low-cDC2 Tbet+" r:id="rId9" sheetId="7"/>
+    <sheet name="high-cDC2 Tbet+" r:id="rId10" sheetId="8"/>
+    <sheet name="high-CCR7hi mig cDC2" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="2145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5432" uniqueCount="2129">
   <si>
     <t>term_name</t>
   </si>
@@ -6409,54 +6407,6 @@
   </si>
   <si>
     <t>GO:0003943</t>
-  </si>
-  <si>
-    <t>laminin receptor activity</t>
-  </si>
-  <si>
-    <t>GO:0005055</t>
-  </si>
-  <si>
-    <t>chaperone-mediated protein transport involved in chaperone-mediated autophagy</t>
-  </si>
-  <si>
-    <t>positive regulation of protein refolding</t>
-  </si>
-  <si>
-    <t>chaperone-mediated autophagy translocation complex disassembly</t>
-  </si>
-  <si>
-    <t>slow axonal transport</t>
-  </si>
-  <si>
-    <t>protein binding, bridging</t>
-  </si>
-  <si>
-    <t>prostaglandin binding</t>
-  </si>
-  <si>
-    <t>clathrin-uncoating ATPase activity</t>
-  </si>
-  <si>
-    <t>GO:0061741</t>
-  </si>
-  <si>
-    <t>GO:1904592</t>
-  </si>
-  <si>
-    <t>GO:1904764</t>
-  </si>
-  <si>
-    <t>GO:1990832</t>
-  </si>
-  <si>
-    <t>GO:0030674</t>
-  </si>
-  <si>
-    <t>GO:1904593</t>
-  </si>
-  <si>
-    <t>GO:1990833</t>
   </si>
 </sst>
 </file>
@@ -6916,318 +6866,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21095.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.04989957710103307</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21257.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.04951929147804132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="n">
-        <v>21257.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.04951929147804132</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21257.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.04951929147804132</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="n">
-        <v>21257.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.04951929147804132</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="n">
-        <v>21095.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.04520626331666431</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="n">
-        <v>21095.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.04989957710114994</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2137</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="n">
-        <v>21095.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.04989957710114994</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
